--- a/biology/Zoologie/Adeorbis/Adeorbis.xlsx
+++ b/biology/Zoologie/Adeorbis/Adeorbis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adeorbis est un genre fossile de gastéropodes de la famille des Tornidae.
 </t>
@@ -511,19 +523,21 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 juin 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 juin 2021) :
 Adeorbis elegans (A.Adams, 1850)
 Adeorbis lucidus Cossmann, 1881
 Adeorbis naticoides Wood, 1879
-Selon Paleobiology Database                   (15 juin 2021)[2] :
+Selon Paleobiology Database                   (15 juin 2021) :
 sous-genre Adeorbis (Asiolina)
 Adeorbis lucidus
 Adeorbis naticoides
 Adeorbis planorbularis
 Adeorbis woodfordi
-Selon l'IRMNG  (15 juin 2021)[3] :
+Selon l'IRMNG  (15 juin 2021) :
 Adeorbis elegans (A. Adams, 1850) †
 Adeorbis varius Hutton, 1873 †
 Adeorbis abjecta C.B. Adams, 1852 †, synonyme de Echinolittorina atrata (C.B. Adams, 1852)
@@ -565,9 +579,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'IRMNG  (15 juin 2021)[3] et le World Register of Marine Species                               (15 juin 2021)[4], Adeorbis est synonyme de Tornus Turton &amp; Kingston, 1830.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'IRMNG  (15 juin 2021) et le World Register of Marine Species                               (15 juin 2021), Adeorbis est synonyme de Tornus Turton &amp; Kingston, 1830.
 </t>
         </is>
       </c>
